--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\计算机\数据库原理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Go Files\DatabaseProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E858F7B6-DCC4-4A7B-91C3-7F3A2527CCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B1ECD8-BE2E-467A-A9C2-275E9E7C4BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="124">
   <si>
     <t>客户编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>性质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>折扣率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -47,18 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车辆表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>车架号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>维修员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,18 +75,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>业务员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当前工时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>委托书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,50 +99,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>业务员编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预计完工时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>粗略故障</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细故障</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>维修项目编号</t>
-  </si>
-  <si>
-    <t>维修项目编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修派工单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修员编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修员工种</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -178,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>零件号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,15 +119,417 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>零件金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目对应工种总览表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>零件总览表</t>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库中名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discount_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact_person</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact_tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_work_hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户表
+user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员
+salesman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修员
+repairman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目→工种一览表
+type_overview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零件一览表
+parts_overview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零件编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零件单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计量单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parts_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parts_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parts_cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆表
+vehicle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>license_number</t>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知表
+notification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托书
+attorney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员工号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际完工时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗略故障描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细故障描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进厂油量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂油量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进厂里程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂里程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非维修范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehicle_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repairType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salesman_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predict_finish_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actual_finish_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rough_problem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific_problem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_petrol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_petrol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_mile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_mile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派工单表
+arrangement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计工时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际工时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零件数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predict_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parts_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actual_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cookie（哈希）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后访问时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_visit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→user表number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→user表number
+→repariman表number
+→salesman表number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→vehicle表number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→salesman表number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→attorney表number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→type_overview表number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→parts_overview表parts_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修工工号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repairman_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→repairman表number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +537,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,16 +552,46 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -238,12 +599,222 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -524,205 +1095,1113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.21875" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="7" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="1" customWidth="1"/>
+    <col min="3" max="21" width="20.625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" ht="24" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="6"/>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="11"/>
+    </row>
+    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="11"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="17"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="17"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="17"/>
+    </row>
+    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="11"/>
+    </row>
+    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="11"/>
+    </row>
+    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="11"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="17"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="17"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="17"/>
+    </row>
+    <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="11"/>
+    </row>
+    <row r="15" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="11"/>
+    </row>
+    <row r="16" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="11"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="17"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="17"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="17"/>
+    </row>
+    <row r="20" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="11"/>
+    </row>
+    <row r="21" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="11"/>
+    </row>
+    <row r="22" spans="1:21" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="11"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="E23" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F23" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="H23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q23" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="R23" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="S23" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="T23" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="U23" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="R24" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="T24" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="U24" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="17"/>
+    </row>
+    <row r="26" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D26" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="11"/>
+    </row>
+    <row r="27" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="11"/>
+    </row>
+    <row r="28" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="11"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="17"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="B30" s="18"/>
+      <c r="C30" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="17"/>
+    </row>
+    <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="K13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="25"/>
+    </row>
+    <row r="32" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C1:U1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Go Files\DatabaseProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B1ECD8-BE2E-467A-A9C2-275E9E7C4BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD060B0D-8F33-4083-9C4E-6D4F8AF68369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="402">
   <si>
     <t>客户编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,6 +532,939 @@
   </si>
   <si>
     <t>→repairman表number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垫片-（排气管）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000004</t>
+  </si>
+  <si>
+    <t>00000005</t>
+  </si>
+  <si>
+    <t>00000006</t>
+  </si>
+  <si>
+    <t>00000007</t>
+  </si>
+  <si>
+    <t>00000008</t>
+  </si>
+  <si>
+    <t>00000009</t>
+  </si>
+  <si>
+    <t>00000010</t>
+  </si>
+  <si>
+    <t>00000011</t>
+  </si>
+  <si>
+    <t>00000012</t>
+  </si>
+  <si>
+    <t>00000013</t>
+  </si>
+  <si>
+    <t>00000014</t>
+  </si>
+  <si>
+    <t>00000015</t>
+  </si>
+  <si>
+    <t>00000016</t>
+  </si>
+  <si>
+    <t>00000017</t>
+  </si>
+  <si>
+    <t>00000018</t>
+  </si>
+  <si>
+    <t>00000019</t>
+  </si>
+  <si>
+    <t>00000020</t>
+  </si>
+  <si>
+    <t>00000021</t>
+  </si>
+  <si>
+    <t>00000022</t>
+  </si>
+  <si>
+    <t>00000023</t>
+  </si>
+  <si>
+    <t>00000024</t>
+  </si>
+  <si>
+    <t>00000025</t>
+  </si>
+  <si>
+    <t>00000026</t>
+  </si>
+  <si>
+    <t>00000027</t>
+  </si>
+  <si>
+    <t>00000028</t>
+  </si>
+  <si>
+    <t>00000029</t>
+  </si>
+  <si>
+    <t>00000030</t>
+  </si>
+  <si>
+    <t>00000031</t>
+  </si>
+  <si>
+    <t>00000032</t>
+  </si>
+  <si>
+    <t>00000033</t>
+  </si>
+  <si>
+    <t>00000034</t>
+  </si>
+  <si>
+    <t>00000035</t>
+  </si>
+  <si>
+    <t>00000036</t>
+  </si>
+  <si>
+    <t>00000037</t>
+  </si>
+  <si>
+    <t>00000038</t>
+  </si>
+  <si>
+    <t>00000039</t>
+  </si>
+  <si>
+    <t>00000040</t>
+  </si>
+  <si>
+    <t>00000041</t>
+  </si>
+  <si>
+    <t>00000042</t>
+  </si>
+  <si>
+    <t>00000043</t>
+  </si>
+  <si>
+    <t>00000044</t>
+  </si>
+  <si>
+    <t>00000045</t>
+  </si>
+  <si>
+    <t>00000046</t>
+  </si>
+  <si>
+    <t>00000047</t>
+  </si>
+  <si>
+    <t>00000048</t>
+  </si>
+  <si>
+    <t>00000049</t>
+  </si>
+  <si>
+    <t>00000050</t>
+  </si>
+  <si>
+    <t>00000051</t>
+  </si>
+  <si>
+    <t>00000052</t>
+  </si>
+  <si>
+    <t>00000053</t>
+  </si>
+  <si>
+    <t>00000054</t>
+  </si>
+  <si>
+    <t>发动机大修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动机中修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换缸盖垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换机油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清洗喷油嘴（支）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换喷油嘴（支）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换发动机水泵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换水箱及冷却液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换起动机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换发电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆装汽油箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换汽油箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换火花塞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换汽油泵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换空气格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换汽油格（油箱内）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换机油格（油箱外）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换发动机皮带/条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换发动机分电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检修发动机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前/后封箱漏油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检修发动机电喷系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换正时皮带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换机油泵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换机油泵（V6）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清洗节气门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换水箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换水管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清洗油电路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解除机头故障灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换半轴/边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换自动变速箱油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动变速箱大修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动变速箱大修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换前避震器/缓冲胶（支）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换后避震器/缓冲胶（支）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆装轮胎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平衡轮胎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换轮胎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四轮定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换前/后刹车片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换刹车碟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修手刹系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换刹车总泵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆仪表盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换制动分泵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换平衡杆球头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换刹车油及排空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换离合器片（拆装波箱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换下球头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换方向内/外球头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检修四轮刹车系统/保养</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换前上/下摆臂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换前/后轮轴承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换转动轴十字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大修空调系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修雨刮连杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换膨胀阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆蒸发器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换空调冷凝器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换空调干燥瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换电子扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换暖水阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换鼓风机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换喷水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换雨刮片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换电池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换汽车电喇叭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换车门升降器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换转向组合开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修前/后雨刮马达线路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修ABS系统警报灯线路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修SRS气囊系统警报灯线路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换中央门锁系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换暖水箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换前/后挡风玻璃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换发动机盖或后箱盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换前叶子板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换车门玻璃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调校/更换车门锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换（拆装）前/后保险杠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换全车锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆装门饰板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换车门拉手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换车门铰链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换顶棚天花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆装全车座椅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换后视镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆门饰板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换前大灯总成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换后尾灯总成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000055</t>
+  </si>
+  <si>
+    <t>00000056</t>
+  </si>
+  <si>
+    <t>00000057</t>
+  </si>
+  <si>
+    <t>00000058</t>
+  </si>
+  <si>
+    <t>00000059</t>
+  </si>
+  <si>
+    <t>00000060</t>
+  </si>
+  <si>
+    <t>00000061</t>
+  </si>
+  <si>
+    <t>00000062</t>
+  </si>
+  <si>
+    <t>00000063</t>
+  </si>
+  <si>
+    <t>00000064</t>
+  </si>
+  <si>
+    <t>00000065</t>
+  </si>
+  <si>
+    <t>00000066</t>
+  </si>
+  <si>
+    <t>00000067</t>
+  </si>
+  <si>
+    <t>00000068</t>
+  </si>
+  <si>
+    <t>00000069</t>
+  </si>
+  <si>
+    <t>00000070</t>
+  </si>
+  <si>
+    <t>00000071</t>
+  </si>
+  <si>
+    <t>00000072</t>
+  </si>
+  <si>
+    <t>00000073</t>
+  </si>
+  <si>
+    <t>00000074</t>
+  </si>
+  <si>
+    <t>00000075</t>
+  </si>
+  <si>
+    <t>00000076</t>
+  </si>
+  <si>
+    <t>00000077</t>
+  </si>
+  <si>
+    <t>00000078</t>
+  </si>
+  <si>
+    <t>00000079</t>
+  </si>
+  <si>
+    <t>00000080</t>
+  </si>
+  <si>
+    <t>00000081</t>
+  </si>
+  <si>
+    <t>00000082</t>
+  </si>
+  <si>
+    <t>00000083</t>
+  </si>
+  <si>
+    <t>00000084</t>
+  </si>
+  <si>
+    <t>00000085</t>
+  </si>
+  <si>
+    <t>00000086</t>
+  </si>
+  <si>
+    <t>00000087</t>
+  </si>
+  <si>
+    <t>00000088</t>
+  </si>
+  <si>
+    <t>00000089</t>
+  </si>
+  <si>
+    <t>00000090</t>
+  </si>
+  <si>
+    <t>00000091</t>
+  </si>
+  <si>
+    <t>fdjdx</t>
+  </si>
+  <si>
+    <t>fdjzx</t>
+  </si>
+  <si>
+    <t>ghggd</t>
+  </si>
+  <si>
+    <t>ghjy</t>
+  </si>
+  <si>
+    <t>ghfdjsb</t>
+  </si>
+  <si>
+    <t>ghsxjlqy</t>
+  </si>
+  <si>
+    <t>ghqdj</t>
+  </si>
+  <si>
+    <t>ghfdj</t>
+  </si>
+  <si>
+    <t>czqyx</t>
+  </si>
+  <si>
+    <t>ghqyx</t>
+  </si>
+  <si>
+    <t>ghhhs</t>
+  </si>
+  <si>
+    <t>ghqyb</t>
+  </si>
+  <si>
+    <t>ghkqg</t>
+  </si>
+  <si>
+    <t>ghfdjfdq</t>
+  </si>
+  <si>
+    <t>jxfdj</t>
+  </si>
+  <si>
+    <t>jxfdjdpxt</t>
+  </si>
+  <si>
+    <t>ghzspd</t>
+  </si>
+  <si>
+    <t>ghjyb</t>
+  </si>
+  <si>
+    <t>qxjqm</t>
+  </si>
+  <si>
+    <t>ghsx</t>
+  </si>
+  <si>
+    <t>ghsg</t>
+  </si>
+  <si>
+    <t>qxydl</t>
+  </si>
+  <si>
+    <t>jcjtgzd</t>
+  </si>
+  <si>
+    <t>ghzdbsxy</t>
+  </si>
+  <si>
+    <t>zdbsxdx</t>
+  </si>
+  <si>
+    <t>sdbsxdx</t>
+  </si>
+  <si>
+    <t>czlt</t>
+  </si>
+  <si>
+    <t>phlt</t>
+  </si>
+  <si>
+    <t>ghlt</t>
+  </si>
+  <si>
+    <t>sldw</t>
+  </si>
+  <si>
+    <t>ghscd</t>
+  </si>
+  <si>
+    <t>wxssxt</t>
+  </si>
+  <si>
+    <t>ghsczb</t>
+  </si>
+  <si>
+    <t>cybp</t>
+  </si>
+  <si>
+    <t>ghzdfb</t>
+  </si>
+  <si>
+    <t>ghphgqt</t>
+  </si>
+  <si>
+    <t>ghscyjpk</t>
+  </si>
+  <si>
+    <t>ghxqt</t>
+  </si>
+  <si>
+    <t>ghzdzszj</t>
+  </si>
+  <si>
+    <t>dxkdxt</t>
+  </si>
+  <si>
+    <t>wxyglg</t>
+  </si>
+  <si>
+    <t>ghpzf</t>
+  </si>
+  <si>
+    <t>czfq</t>
+  </si>
+  <si>
+    <t>ghkdlnq</t>
+  </si>
+  <si>
+    <t>ghkdgzp</t>
+  </si>
+  <si>
+    <t>ghdzs</t>
+  </si>
+  <si>
+    <t>ghnsf</t>
+  </si>
+  <si>
+    <t>ghgfj</t>
+  </si>
+  <si>
+    <t>ghpsq</t>
+  </si>
+  <si>
+    <t>ghygp</t>
+  </si>
+  <si>
+    <t>ghdc</t>
+  </si>
+  <si>
+    <t>ghqcdlb</t>
+  </si>
+  <si>
+    <t>ghcmsjq</t>
+  </si>
+  <si>
+    <t>ghzxzhkg</t>
+  </si>
+  <si>
+    <t>wxabsxtjbdxl</t>
+  </si>
+  <si>
+    <t>wxsrsqnxtjbdxl</t>
+  </si>
+  <si>
+    <t>ghzymsxt</t>
+  </si>
+  <si>
+    <t>ghnsx</t>
+  </si>
+  <si>
+    <t>ghfdjghhxg</t>
+  </si>
+  <si>
+    <t>ghqyzb</t>
+  </si>
+  <si>
+    <t>ghcmbl</t>
+  </si>
+  <si>
+    <t>ghqcs</t>
+  </si>
+  <si>
+    <t>czmsb</t>
+  </si>
+  <si>
+    <t>ghcmls</t>
+  </si>
+  <si>
+    <t>ghcmjl</t>
+  </si>
+  <si>
+    <t>ghdpth</t>
+  </si>
+  <si>
+    <t>czqczy</t>
+  </si>
+  <si>
+    <t>ghhsj</t>
+  </si>
+  <si>
+    <t>cmsb</t>
+  </si>
+  <si>
+    <t>ghqddzc</t>
+  </si>
+  <si>
+    <t>ghhwdzc</t>
+  </si>
+  <si>
+    <t>ghjygyxw</t>
+  </si>
+  <si>
+    <t>qxpyzz</t>
+  </si>
+  <si>
+    <t>ghpyzz</t>
+  </si>
+  <si>
+    <t>ghqygyxn</t>
+  </si>
+  <si>
+    <t>ghfdjpdt</t>
+  </si>
+  <si>
+    <t>qhfxly</t>
+  </si>
+  <si>
+    <t>ghjybv</t>
+  </si>
+  <si>
+    <t>ghbzb</t>
+  </si>
+  <si>
+    <t>ghqbzqhcjz</t>
+  </si>
+  <si>
+    <t>ghhbzqhcjz</t>
+  </si>
+  <si>
+    <t>ghqhscp</t>
+  </si>
+  <si>
+    <t>ghlhqpczbx</t>
+  </si>
+  <si>
+    <t>ghfxnwqt</t>
+  </si>
+  <si>
+    <t>jxslscxtby</t>
+  </si>
+  <si>
+    <t>ghqsxbb</t>
+  </si>
+  <si>
+    <t>ghqhlzc</t>
+  </si>
+  <si>
+    <t>wxqhygmdxl</t>
+  </si>
+  <si>
+    <t>ghqhdfbl</t>
+  </si>
+  <si>
+    <t>dxghcms</t>
+  </si>
+  <si>
+    <t>ghczqhbxg</t>
+  </si>
+  <si>
+    <t>维修项目首字母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_spelling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,7 +1673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -752,17 +1687,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -779,9 +1705,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -789,9 +1712,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -809,12 +1729,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1097,11 +2056,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1117,1075 +2076,1075 @@
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="6"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="26"/>
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="11"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="8"/>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="11"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="8"/>
     </row>
     <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="11"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="8"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="17"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="13"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="17"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="13"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="17"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="13"/>
     </row>
     <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="11"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="8"/>
     </row>
     <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="11"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="8"/>
     </row>
     <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="11"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="8"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="17"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="13"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="17"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="13"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="17"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="13"/>
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="11"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="8"/>
     </row>
     <row r="15" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="11"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="8"/>
     </row>
     <row r="16" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="11"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="8"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="17"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="13"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="16" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="17"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="13"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="17"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="13"/>
     </row>
     <row r="20" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="11"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="8"/>
     </row>
     <row r="21" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="11"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="8"/>
     </row>
     <row r="22" spans="1:21" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="20" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="11"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="8"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="I23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="J23" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="K23" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="L23" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="M23" s="16" t="s">
+      <c r="M23" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="N23" s="16" t="s">
+      <c r="N23" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="O23" s="16" t="s">
+      <c r="O23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P23" s="16" t="s">
+      <c r="P23" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="Q23" s="16" t="s">
+      <c r="Q23" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="R23" s="16" t="s">
+      <c r="R23" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="S23" s="16" t="s">
+      <c r="S23" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="T23" s="16" t="s">
+      <c r="T23" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="U23" s="17" t="s">
+      <c r="U23" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="16" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="I24" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="L24" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="M24" s="16" t="s">
+      <c r="M24" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="N24" s="16" t="s">
+      <c r="N24" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="O24" s="16" t="s">
+      <c r="O24" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="P24" s="16" t="s">
+      <c r="P24" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="Q24" s="16" t="s">
+      <c r="Q24" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="R24" s="16" t="s">
+      <c r="R24" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="S24" s="16" t="s">
+      <c r="S24" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="T24" s="16" t="s">
+      <c r="T24" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="U24" s="17" t="s">
+      <c r="U24" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16" t="s">
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="17"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="13"/>
     </row>
     <row r="26" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="11"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="8"/>
     </row>
     <row r="27" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="10" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="11"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="8"/>
     </row>
     <row r="28" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10" t="s">
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="11"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="8"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="17"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="13"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="16" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="17"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="13"/>
     </row>
     <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="25"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="19"/>
     </row>
     <row r="32" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -2206,4 +3165,1492 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23939C51-9D98-486A-820D-99FF5A73942B}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="20"/>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="9">
+        <v>27.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A0F6B5-3459-4BA0-BDF4-2C64A98D0FA4}">
+  <dimension ref="A1:E93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="27"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="29"/>
+      <c r="B2" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="29"/>
+      <c r="B3" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="33"/>
+      <c r="B4" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="33"/>
+      <c r="B5" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="33"/>
+      <c r="B7" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="33"/>
+      <c r="B8" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="33"/>
+      <c r="B10" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="33"/>
+      <c r="B11" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="33"/>
+      <c r="B13" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="33"/>
+      <c r="B14" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="33"/>
+      <c r="B16" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="33"/>
+      <c r="B17" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="33"/>
+      <c r="B19" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="33"/>
+      <c r="B20" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="33"/>
+      <c r="B22" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="33"/>
+      <c r="B23" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="33"/>
+      <c r="B24" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="33"/>
+      <c r="B25" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="33"/>
+      <c r="B26" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="33"/>
+      <c r="B27" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="33"/>
+      <c r="B28" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="33"/>
+      <c r="B29" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="33"/>
+      <c r="B30" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="33"/>
+      <c r="B31" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="33"/>
+      <c r="B32" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="33"/>
+      <c r="B33" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="33"/>
+      <c r="B34" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="33"/>
+      <c r="B35" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="33"/>
+      <c r="B36" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="33"/>
+      <c r="B37" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="33"/>
+      <c r="B38" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="33"/>
+      <c r="B39" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="33"/>
+      <c r="B40" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="33"/>
+      <c r="B41" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="33"/>
+      <c r="B42" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="33"/>
+      <c r="B43" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="33"/>
+      <c r="B44" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="33"/>
+      <c r="B45" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="33"/>
+      <c r="B46" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="33"/>
+      <c r="B47" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="33"/>
+      <c r="B48" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="33"/>
+      <c r="B49" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="33"/>
+      <c r="B50" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="33"/>
+      <c r="B51" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="33"/>
+      <c r="B52" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="33"/>
+      <c r="B53" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="33"/>
+      <c r="B54" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="33"/>
+      <c r="B55" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="33"/>
+      <c r="B56" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="33"/>
+      <c r="B57" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="33"/>
+      <c r="B58" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="33"/>
+      <c r="B59" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="33"/>
+      <c r="B60" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="E60" s="33" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="33"/>
+      <c r="B61" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="33"/>
+      <c r="B62" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="33"/>
+      <c r="B63" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="33"/>
+      <c r="B64" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="E64" s="33" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="33"/>
+      <c r="B65" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="E65" s="33" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="33"/>
+      <c r="B66" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E66" s="33" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="33"/>
+      <c r="B67" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="E67" s="33" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="33"/>
+      <c r="B68" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="E68" s="33" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="33"/>
+      <c r="B69" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="E69" s="33" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="33"/>
+      <c r="B70" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="33"/>
+      <c r="B71" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="33"/>
+      <c r="B72" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="33"/>
+      <c r="B73" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="E73" s="33" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="33"/>
+      <c r="B74" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="E74" s="33" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="33"/>
+      <c r="B75" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="E75" s="33" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="33"/>
+      <c r="B76" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="E76" s="33" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="33"/>
+      <c r="B77" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="E77" s="33" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="33"/>
+      <c r="B78" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="E78" s="33" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="33"/>
+      <c r="B79" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="33"/>
+      <c r="B80" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="E80" s="33" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="33"/>
+      <c r="B81" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="E81" s="33" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="33"/>
+      <c r="B82" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="E82" s="33" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="33"/>
+      <c r="B83" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="C83" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="E83" s="33" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="33"/>
+      <c r="B84" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="E84" s="33" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="33"/>
+      <c r="B85" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="E85" s="33" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="33"/>
+      <c r="B86" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="C86" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="E86" s="33" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="33"/>
+      <c r="B87" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="C87" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="E87" s="33" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="33"/>
+      <c r="B88" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="C88" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="E88" s="33" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="33"/>
+      <c r="B89" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D89" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="E89" s="33" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="33"/>
+      <c r="B90" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="C90" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D90" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="E90" s="33" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="33"/>
+      <c r="B91" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="E91" s="33" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="33"/>
+      <c r="B92" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="E92" s="33" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="33"/>
+      <c r="B93" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="E93" s="33" t="s">
+        <v>378</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Go Files\DatabaseProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gopath\src\shu2021-database_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD060B0D-8F33-4083-9C4E-6D4F8AF68369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C81EF53-7448-4D31-841F-0FE519DD7538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1732,6 +1732,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1753,27 +1771,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2057,52 +2057,52 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B11" sqref="B11:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.75" style="1" customWidth="1"/>
-    <col min="3" max="21" width="20.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="1" customWidth="1"/>
+    <col min="3" max="21" width="20.6640625" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="24" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="23.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="26"/>
-    </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="34"/>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="28" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2139,11 +2139,11 @@
       <c r="T2" s="7"/>
       <c r="U2" s="8"/>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
@@ -2178,11 +2178,11 @@
       <c r="T3" s="7"/>
       <c r="U3" s="8"/>
     </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -2203,11 +2203,11 @@
       <c r="T4" s="7"/>
       <c r="U4" s="8"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="30" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -2236,11 +2236,11 @@
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="12" t="s">
         <v>28</v>
       </c>
@@ -2267,11 +2267,11 @@
       <c r="T6" s="12"/>
       <c r="U6" s="13"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -2292,11 +2292,11 @@
       <c r="T7" s="12"/>
       <c r="U7" s="13"/>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="28" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -2331,11 +2331,11 @@
       <c r="T8" s="7"/>
       <c r="U8" s="8"/>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="7" t="s">
         <v>28</v>
       </c>
@@ -2368,11 +2368,11 @@
       <c r="T9" s="7"/>
       <c r="U9" s="8"/>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -2393,11 +2393,11 @@
       <c r="T10" s="7"/>
       <c r="U10" s="8"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="30" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -2426,11 +2426,11 @@
       <c r="T11" s="12"/>
       <c r="U11" s="13"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="12" t="s">
         <v>47</v>
       </c>
@@ -2457,11 +2457,11 @@
       <c r="T12" s="12"/>
       <c r="U12" s="13"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -2482,11 +2482,11 @@
       <c r="T13" s="12"/>
       <c r="U13" s="13"/>
     </row>
-    <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="28" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -2517,11 +2517,11 @@
       <c r="T14" s="7"/>
       <c r="U14" s="8"/>
     </row>
-    <row r="15" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="7" t="s">
         <v>54</v>
       </c>
@@ -2550,11 +2550,11 @@
       <c r="T15" s="7"/>
       <c r="U15" s="8"/>
     </row>
-    <row r="16" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -2575,11 +2575,11 @@
       <c r="T16" s="7"/>
       <c r="U16" s="8"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="30" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -2616,11 +2616,11 @@
       <c r="T17" s="12"/>
       <c r="U17" s="13"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="12" t="s">
         <v>28</v>
       </c>
@@ -2655,11 +2655,11 @@
       <c r="T18" s="12"/>
       <c r="U18" s="13"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12" t="s">
         <v>114</v>
@@ -2682,11 +2682,11 @@
       <c r="T19" s="12"/>
       <c r="U19" s="13"/>
     </row>
-    <row r="20" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="28" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -2719,11 +2719,11 @@
       <c r="T20" s="7"/>
       <c r="U20" s="8"/>
     </row>
-    <row r="21" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="7" t="s">
         <v>28</v>
       </c>
@@ -2754,11 +2754,11 @@
       <c r="T21" s="7"/>
       <c r="U21" s="8"/>
     </row>
-    <row r="22" spans="1:21" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="7"/>
       <c r="D22" s="15" t="s">
         <v>115</v>
@@ -2781,11 +2781,11 @@
       <c r="T22" s="7"/>
       <c r="U22" s="8"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="30" t="s">
         <v>72</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -2846,11 +2846,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="12" t="s">
         <v>28</v>
       </c>
@@ -2909,11 +2909,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="23"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12" t="s">
         <v>114</v>
@@ -2940,11 +2940,11 @@
       <c r="T25" s="12"/>
       <c r="U25" s="13"/>
     </row>
-    <row r="26" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="28" t="s">
         <v>100</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -2983,11 +2983,11 @@
       <c r="T26" s="7"/>
       <c r="U26" s="8"/>
     </row>
-    <row r="27" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="21"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="7" t="s">
         <v>104</v>
       </c>
@@ -3024,11 +3024,11 @@
       <c r="T27" s="7"/>
       <c r="U27" s="8"/>
     </row>
-    <row r="28" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="7" t="s">
         <v>118</v>
       </c>
@@ -3057,11 +3057,11 @@
       <c r="T28" s="7"/>
       <c r="U28" s="8"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="31" t="s">
         <v>108</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -3090,11 +3090,11 @@
       <c r="T29" s="12"/>
       <c r="U29" s="13"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="23"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="12" t="s">
         <v>111</v>
       </c>
@@ -3121,11 +3121,11 @@
       <c r="T30" s="12"/>
       <c r="U30" s="13"/>
     </row>
-    <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="24"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -3146,7 +3146,7 @@
       <c r="T31" s="18"/>
       <c r="U31" s="19"/>
     </row>
-    <row r="32" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:21" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="B20:B22"/>
@@ -3171,14 +3171,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23939C51-9D98-486A-820D-99FF5A73942B}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -3194,8 +3199,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
       <c r="B2" s="9" t="s">
         <v>54</v>
       </c>
@@ -3209,8 +3214,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
       <c r="B3" s="9">
         <v>1</v>
       </c>
@@ -3238,1411 +3243,1413 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A0F6B5-3459-4BA0-BDF4-2C64A98D0FA4}">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A121" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9" style="27"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="25" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="25" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="34" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D3" s="32" t="s">
+      <c r="C3" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="25" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
-      <c r="B4" s="35" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="25" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D5" s="33" t="s">
+      <c r="C5" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="25" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="25" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
-      <c r="B7" s="35" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="25" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
-      <c r="B8" s="35" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="25" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D9" s="28" t="s">
+      <c r="C9" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="25" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
-      <c r="B10" s="35" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D10" s="28" t="s">
+      <c r="C10" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="25" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
-      <c r="B11" s="35" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D11" s="28" t="s">
+      <c r="C11" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="25" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D12" s="28" t="s">
+      <c r="C12" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="25" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
-      <c r="B13" s="35" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D13" s="28" t="s">
+      <c r="C13" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="25" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
-      <c r="B14" s="35" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D14" s="28" t="s">
+      <c r="C14" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="25" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D15" s="28" t="s">
+      <c r="C15" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="25" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="35" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D16" s="28" t="s">
+      <c r="C16" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="25" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
-      <c r="B17" s="35" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D17" s="28" t="s">
+      <c r="C17" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="25" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D18" s="28" t="s">
+      <c r="C18" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="25" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
-      <c r="B19" s="35" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D19" s="28" t="s">
+      <c r="C19" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="25" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
-      <c r="B20" s="35" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D20" s="28" t="s">
+      <c r="C20" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="25" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D21" s="28" t="s">
+      <c r="C21" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="25" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
-      <c r="B22" s="35" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D22" s="28" t="s">
+      <c r="C22" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="25" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
-      <c r="B23" s="35" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="C23" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D23" s="28" t="s">
+      <c r="C23" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D23" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="25" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D24" s="28" t="s">
+      <c r="C24" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="25" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="33"/>
-      <c r="B25" s="35" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D25" s="28" t="s">
+      <c r="C25" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="25" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="33"/>
-      <c r="B26" s="35" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="C26" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D26" s="28" t="s">
+      <c r="C26" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D26" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="25" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="C27" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D27" s="28" t="s">
+      <c r="C27" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="25" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
-      <c r="B28" s="35" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D28" s="28" t="s">
+      <c r="C28" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D28" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="25" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
-      <c r="B29" s="35" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D29" s="28" t="s">
+      <c r="C29" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="25" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D30" s="28" t="s">
+      <c r="C30" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D30" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="25" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
-      <c r="B31" s="35" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C31" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D31" s="28" t="s">
+      <c r="C31" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="25" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
-      <c r="B32" s="35" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C32" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D32" s="28" t="s">
+      <c r="C32" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D32" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="25" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="C33" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D33" s="28" t="s">
+      <c r="C33" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D33" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="25" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
-      <c r="B34" s="35" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C34" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D34" s="28" t="s">
+      <c r="C34" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D34" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="25" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
-      <c r="B35" s="35" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C35" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D35" s="28" t="s">
+      <c r="C35" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D35" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="25" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="33"/>
-      <c r="B36" s="34" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D36" s="28" t="s">
+      <c r="C36" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D36" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="25" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="33"/>
-      <c r="B37" s="35" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="C37" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D37" s="28" t="s">
+      <c r="C37" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D37" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="25" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="33"/>
-      <c r="B38" s="35" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="C38" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D38" s="28" t="s">
+      <c r="C38" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D38" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="25" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="33"/>
-      <c r="B39" s="34" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C39" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D39" s="28" t="s">
+      <c r="C39" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="25" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="33"/>
-      <c r="B40" s="35" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="C40" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D40" s="28" t="s">
+      <c r="C40" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D40" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="E40" s="33" t="s">
+      <c r="E40" s="25" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="33"/>
-      <c r="B41" s="35" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C41" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D41" s="28" t="s">
+      <c r="C41" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D41" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="E41" s="33" t="s">
+      <c r="E41" s="25" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="33"/>
-      <c r="B42" s="34" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D42" s="28" t="s">
+      <c r="C42" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D42" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="E42" s="33" t="s">
+      <c r="E42" s="25" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="33"/>
-      <c r="B43" s="35" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="C43" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D43" s="28" t="s">
+      <c r="C43" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D43" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="E43" s="33" t="s">
+      <c r="E43" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="33"/>
-      <c r="B44" s="35" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="C44" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D44" s="28" t="s">
+      <c r="C44" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D44" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="E44" s="33" t="s">
+      <c r="E44" s="25" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="33"/>
-      <c r="B45" s="34" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="B45" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="C45" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D45" s="28" t="s">
+      <c r="C45" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D45" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="E45" s="33" t="s">
+      <c r="E45" s="25" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="33"/>
-      <c r="B46" s="35" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
+      <c r="B46" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C46" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D46" s="28" t="s">
+      <c r="C46" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D46" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="E46" s="33" t="s">
+      <c r="E46" s="25" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="33"/>
-      <c r="B47" s="35" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
+      <c r="B47" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="C47" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D47" s="28" t="s">
+      <c r="C47" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D47" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="E47" s="33" t="s">
+      <c r="E47" s="25" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="33"/>
-      <c r="B48" s="34" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="25"/>
+      <c r="B48" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="C48" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D48" s="28" t="s">
+      <c r="C48" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D48" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="E48" s="33" t="s">
+      <c r="E48" s="25" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="33"/>
-      <c r="B49" s="35" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
+      <c r="B49" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="C49" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D49" s="28" t="s">
+      <c r="C49" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D49" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="E49" s="33" t="s">
+      <c r="E49" s="25" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="33"/>
-      <c r="B50" s="35" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
+      <c r="B50" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="C50" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D50" s="28" t="s">
+      <c r="C50" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D50" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="E50" s="33" t="s">
+      <c r="E50" s="25" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="33"/>
-      <c r="B51" s="34" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="25"/>
+      <c r="B51" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="C51" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D51" s="28" t="s">
+      <c r="C51" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D51" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="E51" s="33" t="s">
+      <c r="E51" s="25" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="33"/>
-      <c r="B52" s="35" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
+      <c r="B52" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="C52" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D52" s="28" t="s">
+      <c r="C52" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D52" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="E52" s="33" t="s">
+      <c r="E52" s="25" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="33"/>
-      <c r="B53" s="35" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="25"/>
+      <c r="B53" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="C53" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D53" s="28" t="s">
+      <c r="C53" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D53" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="E53" s="33" t="s">
+      <c r="E53" s="25" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="33"/>
-      <c r="B54" s="34" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
+      <c r="B54" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="C54" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D54" s="28" t="s">
+      <c r="C54" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D54" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="E54" s="33" t="s">
+      <c r="E54" s="25" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="33"/>
-      <c r="B55" s="35" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
+      <c r="B55" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="C55" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D55" s="28" t="s">
+      <c r="C55" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D55" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="E55" s="33" t="s">
+      <c r="E55" s="25" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="33"/>
-      <c r="B56" s="35" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="25"/>
+      <c r="B56" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="C56" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D56" s="28" t="s">
+      <c r="C56" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D56" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E56" s="33" t="s">
+      <c r="E56" s="25" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="33"/>
-      <c r="B57" s="34" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+      <c r="B57" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="C57" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D57" s="28" t="s">
+      <c r="C57" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D57" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E57" s="33" t="s">
+      <c r="E57" s="25" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="33"/>
-      <c r="B58" s="35" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="25"/>
+      <c r="B58" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="C58" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D58" s="28" t="s">
+      <c r="C58" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D58" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E58" s="33" t="s">
+      <c r="E58" s="25" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="33"/>
-      <c r="B59" s="35" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="25"/>
+      <c r="B59" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="C59" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D59" s="28" t="s">
+      <c r="C59" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D59" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E59" s="33" t="s">
+      <c r="E59" s="25" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="33"/>
-      <c r="B60" s="34" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="25"/>
+      <c r="B60" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="C60" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D60" s="28" t="s">
+      <c r="C60" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D60" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E60" s="33" t="s">
+      <c r="E60" s="25" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="33"/>
-      <c r="B61" s="35" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="25"/>
+      <c r="B61" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="C61" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D61" s="28" t="s">
+      <c r="C61" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D61" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="E61" s="33" t="s">
+      <c r="E61" s="25" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="33"/>
-      <c r="B62" s="35" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="25"/>
+      <c r="B62" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="C62" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D62" s="28" t="s">
+      <c r="C62" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D62" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E62" s="33" t="s">
+      <c r="E62" s="25" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="33"/>
-      <c r="B63" s="34" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="25"/>
+      <c r="B63" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="C63" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D63" s="28" t="s">
+      <c r="C63" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D63" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="E63" s="33" t="s">
+      <c r="E63" s="25" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="33"/>
-      <c r="B64" s="35" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="25"/>
+      <c r="B64" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="C64" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D64" s="28" t="s">
+      <c r="C64" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D64" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E64" s="33" t="s">
+      <c r="E64" s="25" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="33"/>
-      <c r="B65" s="35" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="25"/>
+      <c r="B65" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="C65" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D65" s="28" t="s">
+      <c r="C65" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D65" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="E65" s="33" t="s">
+      <c r="E65" s="25" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="33"/>
-      <c r="B66" s="34" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="25"/>
+      <c r="B66" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="C66" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D66" s="28" t="s">
+      <c r="C66" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D66" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="E66" s="33" t="s">
+      <c r="E66" s="25" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="33"/>
-      <c r="B67" s="35" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="25"/>
+      <c r="B67" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="C67" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D67" s="28" t="s">
+      <c r="C67" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D67" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="E67" s="33" t="s">
+      <c r="E67" s="25" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="33"/>
-      <c r="B68" s="35" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="25"/>
+      <c r="B68" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="C68" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D68" s="28" t="s">
+      <c r="C68" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D68" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="E68" s="33" t="s">
+      <c r="E68" s="25" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="33"/>
-      <c r="B69" s="34" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="25"/>
+      <c r="B69" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="C69" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D69" s="28" t="s">
+      <c r="C69" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D69" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E69" s="33" t="s">
+      <c r="E69" s="25" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="33"/>
-      <c r="B70" s="35" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="25"/>
+      <c r="B70" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="C70" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D70" s="28" t="s">
+      <c r="C70" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D70" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="E70" s="33" t="s">
+      <c r="E70" s="25" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="33"/>
-      <c r="B71" s="35" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="25"/>
+      <c r="B71" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="C71" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D71" s="28" t="s">
+      <c r="C71" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D71" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="E71" s="33" t="s">
+      <c r="E71" s="25" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="33"/>
-      <c r="B72" s="34" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="25"/>
+      <c r="B72" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="C72" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D72" s="28" t="s">
+      <c r="C72" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D72" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="E72" s="33" t="s">
+      <c r="E72" s="25" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="33"/>
-      <c r="B73" s="35" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="25"/>
+      <c r="B73" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="C73" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D73" s="28" t="s">
+      <c r="C73" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D73" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="E73" s="33" t="s">
+      <c r="E73" s="25" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="33"/>
-      <c r="B74" s="35" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="25"/>
+      <c r="B74" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="C74" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D74" s="28" t="s">
+      <c r="C74" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D74" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="E74" s="33" t="s">
+      <c r="E74" s="25" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="33"/>
-      <c r="B75" s="34" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="25"/>
+      <c r="B75" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="C75" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D75" s="28" t="s">
+      <c r="C75" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D75" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="E75" s="33" t="s">
+      <c r="E75" s="25" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="33"/>
-      <c r="B76" s="35" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="25"/>
+      <c r="B76" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="C76" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D76" s="28" t="s">
+      <c r="C76" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D76" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="E76" s="33" t="s">
+      <c r="E76" s="25" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="33"/>
-      <c r="B77" s="35" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="25"/>
+      <c r="B77" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="C77" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D77" s="28" t="s">
+      <c r="C77" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D77" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="E77" s="33" t="s">
+      <c r="E77" s="25" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="33"/>
-      <c r="B78" s="34" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="25"/>
+      <c r="B78" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="C78" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D78" s="28" t="s">
+      <c r="C78" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D78" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="E78" s="33" t="s">
+      <c r="E78" s="25" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="33"/>
-      <c r="B79" s="35" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="25"/>
+      <c r="B79" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="C79" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D79" s="28" t="s">
+      <c r="C79" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D79" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="E79" s="33" t="s">
+      <c r="E79" s="25" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="33"/>
-      <c r="B80" s="35" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="25"/>
+      <c r="B80" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="C80" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D80" s="28" t="s">
+      <c r="C80" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D80" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="E80" s="33" t="s">
+      <c r="E80" s="25" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="33"/>
-      <c r="B81" s="34" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="25"/>
+      <c r="B81" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="C81" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D81" s="28" t="s">
+      <c r="C81" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D81" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="E81" s="33" t="s">
+      <c r="E81" s="25" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="33"/>
-      <c r="B82" s="35" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="25"/>
+      <c r="B82" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="C82" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D82" s="28" t="s">
+      <c r="C82" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D82" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="E82" s="33" t="s">
+      <c r="E82" s="25" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="33"/>
-      <c r="B83" s="35" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="25"/>
+      <c r="B83" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="C83" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D83" s="28" t="s">
+      <c r="C83" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D83" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="E83" s="33" t="s">
+      <c r="E83" s="25" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="33"/>
-      <c r="B84" s="34" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="25"/>
+      <c r="B84" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="C84" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D84" s="28" t="s">
+      <c r="C84" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D84" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="E84" s="33" t="s">
+      <c r="E84" s="25" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="33"/>
-      <c r="B85" s="35" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="25"/>
+      <c r="B85" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="C85" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D85" s="28" t="s">
+      <c r="C85" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D85" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="E85" s="33" t="s">
+      <c r="E85" s="25" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="33"/>
-      <c r="B86" s="35" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="25"/>
+      <c r="B86" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="C86" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D86" s="28" t="s">
+      <c r="C86" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D86" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="E86" s="33" t="s">
+      <c r="E86" s="25" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="33"/>
-      <c r="B87" s="34" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="25"/>
+      <c r="B87" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="C87" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D87" s="28" t="s">
+      <c r="C87" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D87" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="E87" s="33" t="s">
+      <c r="E87" s="25" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="33"/>
-      <c r="B88" s="35" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="25"/>
+      <c r="B88" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="C88" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D88" s="28" t="s">
+      <c r="C88" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D88" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="E88" s="33" t="s">
+      <c r="E88" s="25" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="33"/>
-      <c r="B89" s="35" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="25"/>
+      <c r="B89" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="C89" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D89" s="28" t="s">
+      <c r="C89" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D89" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="E89" s="33" t="s">
+      <c r="E89" s="25" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="33"/>
-      <c r="B90" s="34" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="25"/>
+      <c r="B90" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="C90" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D90" s="28" t="s">
+      <c r="C90" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D90" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="E90" s="33" t="s">
+      <c r="E90" s="25" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="33"/>
-      <c r="B91" s="35" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="25"/>
+      <c r="B91" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="C91" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D91" s="28" t="s">
+      <c r="C91" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D91" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="E91" s="33" t="s">
+      <c r="E91" s="25" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="33"/>
-      <c r="B92" s="35" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="25"/>
+      <c r="B92" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="C92" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D92" s="28" t="s">
+      <c r="C92" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D92" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="E92" s="33" t="s">
+      <c r="E92" s="25" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="33"/>
-      <c r="B93" s="34" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="25"/>
+      <c r="B93" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="C93" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D93" s="28" t="s">
+      <c r="C93" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D93" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="E93" s="33" t="s">
+      <c r="E93" s="25" t="s">
         <v>378</v>
       </c>
     </row>

--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Go Files\DatabaseProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B41063C-3E0D-4661-B584-6E468231CD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89E4C3C-246A-487A-9086-3FB0E872C630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="134">
   <si>
     <t>客户编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -513,90 +513,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工时A-H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工时A-D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工时B-H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工时B-D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工时C-H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工时C-D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工时D-H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工时D-D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工时E-H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工时E-D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>零件首字母</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>time_a_h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time_a_d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time_b_h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time_b_d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time_c_h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time_c_d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time_d_h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time_d_d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time_e_h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time_e_d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>parts_spelling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -610,6 +530,46 @@
   </si>
   <si>
     <t>→time_overview表number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -825,7 +785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -887,6 +847,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -906,9 +872,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1197,7 +1160,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1213,33 +1176,33 @@
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="29"/>
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1280,7 +1243,7 @@
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
@@ -1319,7 +1282,7 @@
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -1344,7 +1307,7 @@
       <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="25" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1377,7 +1340,7 @@
       <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="11" t="s">
         <v>28</v>
       </c>
@@ -1408,7 +1371,7 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1433,7 +1396,7 @@
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1472,7 +1435,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="7" t="s">
         <v>28</v>
       </c>
@@ -1509,7 +1472,7 @@
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1534,7 +1497,7 @@
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="25" t="s">
         <v>118</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -1543,42 +1506,32 @@
       <c r="D11" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="H11" s="20" t="s">
+      <c r="F11" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="I11" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="K11" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="O11" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>141</v>
-      </c>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
@@ -1589,7 +1542,7 @@
       <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="11" t="s">
         <v>46</v>
       </c>
@@ -1599,39 +1552,29 @@
       <c r="E12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="I12" s="20" t="s">
+      <c r="J12" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="J12" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>142</v>
-      </c>
+      <c r="K12" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
@@ -1642,7 +1585,7 @@
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -1667,7 +1610,7 @@
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="23" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1677,7 +1620,7 @@
         <v>22</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>50</v>
@@ -1702,7 +1645,7 @@
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="7" t="s">
         <v>51</v>
       </c>
@@ -1710,7 +1653,7 @@
         <v>52</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>53</v>
@@ -1735,7 +1678,7 @@
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="21"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1760,7 +1703,7 @@
       <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="25" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -1801,7 +1744,7 @@
       <c r="A18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="11" t="s">
         <v>28</v>
       </c>
@@ -1840,7 +1783,7 @@
       <c r="A19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="24"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11" t="s">
         <v>107</v>
@@ -1867,7 +1810,7 @@
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="23" t="s">
         <v>64</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1904,7 +1847,7 @@
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="7" t="s">
         <v>28</v>
       </c>
@@ -1939,7 +1882,7 @@
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="7"/>
       <c r="D22" s="14" t="s">
         <v>108</v>
@@ -1966,7 +1909,7 @@
       <c r="A23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="25" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -2031,7 +1974,7 @@
       <c r="A24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="11" t="s">
         <v>28</v>
       </c>
@@ -2094,7 +2037,7 @@
       <c r="A25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
         <v>107</v>
@@ -2125,7 +2068,7 @@
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="23" t="s">
         <v>97</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -2164,7 +2107,7 @@
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="22"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="7" t="s">
         <v>99</v>
       </c>
@@ -2201,12 +2144,12 @@
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="22"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="7" t="s">
         <v>111</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>115</v>
@@ -2234,7 +2177,7 @@
       <c r="A29" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="26" t="s">
         <v>101</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -2267,7 +2210,7 @@
       <c r="A30" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="24"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="11" t="s">
         <v>104</v>
       </c>
@@ -2298,7 +2241,7 @@
       <c r="A31" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="25"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>

--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Go Files\DatabaseProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89E4C3C-246A-487A-9086-3FB0E872C630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B732967F-6475-42E6-9333-34D8E0588BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="135">
   <si>
     <t>客户编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -570,6 +570,10 @@
   </si>
   <si>
     <t>time_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1160,7 +1164,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1828,7 +1832,9 @@
       <c r="G20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>134</v>
+      </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -1863,7 +1869,9 @@
       <c r="G21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>

--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Go Files\DatabaseProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B732967F-6475-42E6-9333-34D8E0588BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFA7AD5-F009-48C9-8E2A-E736AEB8508A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="10545" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="138">
   <si>
     <t>客户编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,10 +329,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进厂油量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -394,10 +390,6 @@
   </si>
   <si>
     <t>progress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total_cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -574,6 +566,27 @@
   </si>
   <si>
     <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注表
+remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→remark表remark_number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,7 +655,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -740,56 +753,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -836,15 +804,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -855,6 +814,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -869,13 +834,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1158,13 +1123,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1180,33 +1145,33 @@
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="29"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="27"/>
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1247,7 +1212,7 @@
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
@@ -1286,7 +1251,7 @@
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -1311,7 +1276,7 @@
       <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1344,7 +1309,7 @@
       <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="11" t="s">
         <v>28</v>
       </c>
@@ -1375,7 +1340,7 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1400,7 +1365,7 @@
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1439,7 +1404,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="7" t="s">
         <v>28</v>
       </c>
@@ -1476,7 +1441,7 @@
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1501,40 +1466,40 @@
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>118</v>
+      <c r="B11" s="24" t="s">
+        <v>116</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="H11" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
+      <c r="I11" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
@@ -1546,38 +1511,38 @@
       <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="21" t="s">
+      <c r="E12" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="H12" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
+      <c r="I12" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
@@ -1589,7 +1554,7 @@
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -1598,7 +1563,9 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+      <c r="K13" s="20" t="s">
+        <v>137</v>
+      </c>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
@@ -1614,7 +1581,7 @@
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1623,10 +1590,10 @@
       <c r="D14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="19" t="s">
+      <c r="E14" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>50</v>
       </c>
       <c r="G14" s="7"/>
@@ -1649,17 +1616,17 @@
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="19" t="s">
+      <c r="E15" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>53</v>
       </c>
       <c r="G15" s="7"/>
@@ -1682,7 +1649,7 @@
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1707,7 +1674,7 @@
       <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -1748,7 +1715,7 @@
       <c r="A18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="26"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="11" t="s">
         <v>28</v>
       </c>
@@ -1787,10 +1754,10 @@
       <c r="A19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="26"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
@@ -1814,7 +1781,7 @@
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>64</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1833,7 +1800,7 @@
         <v>63</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -1853,7 +1820,7 @@
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="7" t="s">
         <v>28</v>
       </c>
@@ -1890,10 +1857,10 @@
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="24"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="7"/>
       <c r="D22" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -1917,7 +1884,7 @@
       <c r="A23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -1959,30 +1926,28 @@
       <c r="O23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P23" s="11" t="s">
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="Q23" s="11" t="s">
+      <c r="R23" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="R23" s="11" t="s">
+      <c r="S23" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="S23" s="11" t="s">
+      <c r="T23" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="T23" s="11" t="s">
+      <c r="U23" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="U23" s="12" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="26"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="11" t="s">
         <v>28</v>
       </c>
@@ -1990,75 +1955,73 @@
         <v>56</v>
       </c>
       <c r="E24" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="G24" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="H24" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="I24" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="J24" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="K24" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="L24" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="M24" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="M24" s="11" t="s">
+      <c r="N24" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="N24" s="11" t="s">
+      <c r="O24" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="P24" s="11" t="s">
+      <c r="R24" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="Q24" s="11" t="s">
+      <c r="S24" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="R24" s="11" t="s">
+      <c r="T24" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="S24" s="11" t="s">
+      <c r="U24" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="T24" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="U24" s="12" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="26"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>109</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -2076,8 +2039,8 @@
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="23" t="s">
-        <v>97</v>
+      <c r="B26" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>13</v>
@@ -2085,19 +2048,19 @@
       <c r="D26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="19" t="s">
+      <c r="E26" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="H26" s="19" t="s">
+      <c r="G26" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="19"/>
+      <c r="I26" s="16"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -2115,26 +2078,26 @@
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="24"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I27" s="19"/>
+      <c r="G27" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" s="16"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -2152,18 +2115,18 @@
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="24"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -2185,98 +2148,182 @@
       <c r="A29" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="26" t="s">
-        <v>101</v>
+      <c r="B29" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
+        <v>134</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
       <c r="U29" s="12"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="11" t="s">
+      <c r="B30" s="25"/>
+      <c r="C30" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="12"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="25"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="12"/>
+    </row>
+    <row r="32" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="8"/>
+    </row>
+    <row r="33" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="12"/>
-    </row>
-    <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="8"/>
+    </row>
+    <row r="34" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="18"/>
-    </row>
-    <row r="32" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="C1:U1"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
@@ -2284,6 +2331,7 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B29:B31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Go Files\DatabaseProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFA7AD5-F009-48C9-8E2A-E736AEB8508A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8877B1D-17A6-4B48-B8D7-407661E5F9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="10545" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="139">
   <si>
     <t>客户编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -587,6 +587,11 @@
   </si>
   <si>
     <t>→remark表remark_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修零件表
+repair_parts</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -819,7 +824,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -838,9 +849,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1123,13 +1131,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1145,33 +1153,33 @@
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="29"/>
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1212,7 +1220,7 @@
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
@@ -1251,7 +1259,7 @@
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -1276,7 +1284,7 @@
       <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="26" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1309,7 +1317,7 @@
       <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="11" t="s">
         <v>28</v>
       </c>
@@ -1340,7 +1348,7 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1365,7 +1373,7 @@
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="24" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1404,7 +1412,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="7" t="s">
         <v>28</v>
       </c>
@@ -1441,7 +1449,7 @@
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1466,7 +1474,7 @@
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="26" t="s">
         <v>116</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -1511,7 +1519,7 @@
       <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="11" t="s">
         <v>46</v>
       </c>
@@ -1554,7 +1562,7 @@
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -1581,7 +1589,7 @@
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1616,7 +1624,7 @@
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="7" t="s">
         <v>51</v>
       </c>
@@ -1649,7 +1657,7 @@
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1674,7 +1682,7 @@
       <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="26" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -1715,7 +1723,7 @@
       <c r="A18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="25"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="11" t="s">
         <v>28</v>
       </c>
@@ -1754,7 +1762,7 @@
       <c r="A19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="25"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11" t="s">
         <v>105</v>
@@ -1781,7 +1789,7 @@
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="24" t="s">
         <v>64</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1820,7 +1828,7 @@
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="7" t="s">
         <v>28</v>
       </c>
@@ -1857,7 +1865,7 @@
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="7"/>
       <c r="D22" s="14" t="s">
         <v>106</v>
@@ -1884,7 +1892,7 @@
       <c r="A23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="26" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -1947,7 +1955,7 @@
       <c r="A24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="25"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="11" t="s">
         <v>28</v>
       </c>
@@ -2008,7 +2016,7 @@
       <c r="A25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="25"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
         <v>105</v>
@@ -2039,7 +2047,7 @@
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="24" t="s">
         <v>95</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -2048,18 +2056,14 @@
       <c r="D26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="H26" s="16" t="s">
+      <c r="F26" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -2078,7 +2082,7 @@
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="7" t="s">
         <v>97</v>
       </c>
@@ -2088,15 +2092,11 @@
       <c r="E27" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="H27" s="16" t="s">
+      <c r="F27" s="21" t="s">
         <v>89</v>
       </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -2115,7 +2115,7 @@
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="23"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="7" t="s">
         <v>109</v>
       </c>
@@ -2125,9 +2125,7 @@
       <c r="E28" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -2148,182 +2146,281 @@
       <c r="A29" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>133</v>
+      <c r="B29" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
+        <v>13</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
       <c r="U29" s="12"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
       <c r="U30" s="12"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
       <c r="U31" s="12"/>
     </row>
     <row r="32" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>99</v>
+      <c r="B32" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
+        <v>136</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
       <c r="U32" s="8"/>
     </row>
     <row r="33" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
       <c r="U33" s="8"/>
     </row>
     <row r="34" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
       <c r="U34" s="8"/>
     </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="12"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="12"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
     <mergeCell ref="C1:U1"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
@@ -2331,6 +2428,7 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="B29:B31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Go Files\DatabaseProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8877B1D-17A6-4B48-B8D7-407661E5F9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EF226F-1116-4814-A294-7D3FFA10F64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="144">
   <si>
     <t>客户编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,6 +593,23 @@
     <t>维修零件表
 repair_parts</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成订单表
+finished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehicle_number</t>
+  </si>
+  <si>
+    <t>→attorney表number</t>
+  </si>
+  <si>
+    <t>→vehicle表number</t>
+  </si>
+  <si>
+    <t>→user表number</t>
   </si>
 </sst>
 </file>
@@ -660,7 +677,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -758,11 +775,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -834,6 +888,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -850,6 +907,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,13 +1197,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U37"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1153,33 +1219,33 @@
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="30"/>
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1220,7 +1286,7 @@
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
@@ -1259,7 +1325,7 @@
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -1284,7 +1350,7 @@
       <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1317,7 +1383,7 @@
       <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="11" t="s">
         <v>28</v>
       </c>
@@ -1348,7 +1414,7 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1373,7 +1439,7 @@
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="25" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1412,7 +1478,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="7" t="s">
         <v>28</v>
       </c>
@@ -1449,7 +1515,7 @@
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1474,7 +1540,7 @@
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="27" t="s">
         <v>116</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -1519,7 +1585,7 @@
       <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="11" t="s">
         <v>46</v>
       </c>
@@ -1562,7 +1628,7 @@
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -1589,7 +1655,7 @@
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1624,7 +1690,7 @@
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="7" t="s">
         <v>51</v>
       </c>
@@ -1657,7 +1723,7 @@
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1682,7 +1748,7 @@
       <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="27" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -1723,7 +1789,7 @@
       <c r="A18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="27"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="11" t="s">
         <v>28</v>
       </c>
@@ -1762,7 +1828,7 @@
       <c r="A19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="27"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11" t="s">
         <v>105</v>
@@ -1789,7 +1855,7 @@
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1828,7 +1894,7 @@
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="7" t="s">
         <v>28</v>
       </c>
@@ -1865,7 +1931,7 @@
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="25"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="7"/>
       <c r="D22" s="14" t="s">
         <v>106</v>
@@ -1892,7 +1958,7 @@
       <c r="A23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="27" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -1955,7 +2021,7 @@
       <c r="A24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="27"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="11" t="s">
         <v>28</v>
       </c>
@@ -2016,7 +2082,7 @@
       <c r="A25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="27"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
         <v>105</v>
@@ -2047,7 +2113,7 @@
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="25" t="s">
         <v>95</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -2082,7 +2148,7 @@
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="25"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="7" t="s">
         <v>97</v>
       </c>
@@ -2115,7 +2181,7 @@
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="25"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="7" t="s">
         <v>109</v>
       </c>
@@ -2146,7 +2212,7 @@
       <c r="A29" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="27" t="s">
         <v>138</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -2181,7 +2247,7 @@
       <c r="A30" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="27"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="22" t="s">
         <v>97</v>
       </c>
@@ -2214,7 +2280,7 @@
       <c r="A31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="27"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="22" t="s">
         <v>109</v>
       </c>
@@ -2241,11 +2307,11 @@
       <c r="T31" s="22"/>
       <c r="U31" s="12"/>
     </row>
-    <row r="32" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="31" t="s">
         <v>133</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -2255,82 +2321,82 @@
         <v>136</v>
       </c>
       <c r="E32" s="23"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
       <c r="U32" s="8"/>
     </row>
     <row r="33" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="21" t="s">
+      <c r="B33" s="32"/>
+      <c r="C33" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
       <c r="U33" s="8"/>
     </row>
     <row r="34" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
       <c r="U34" s="8"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="27" t="s">
         <v>99</v>
       </c>
       <c r="C35" s="10" t="s">
@@ -2363,7 +2429,7 @@
       <c r="A36" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="27"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="22" t="s">
         <v>102</v>
       </c>
@@ -2394,7 +2460,7 @@
       <c r="A37" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="27"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
@@ -2415,8 +2481,104 @@
       <c r="T37" s="22"/>
       <c r="U37" s="12"/>
     </row>
+    <row r="38" spans="1:21" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="U38" s="8"/>
+    </row>
+    <row r="39" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
+      <c r="U39" s="8"/>
+    </row>
+    <row r="40" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="33"/>
+      <c r="C40" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="24"/>
+      <c r="U40" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="B38:B40"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B28"/>

--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Go Files\DatabaseProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EF226F-1116-4814-A294-7D3FFA10F64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6462D8-075B-4542-B7D4-20C0191022CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17895" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="139">
   <si>
     <t>客户编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,23 +593,6 @@
     <t>维修零件表
 repair_parts</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成订单表
-finished</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle_number</t>
-  </si>
-  <si>
-    <t>→attorney表number</t>
-  </si>
-  <si>
-    <t>→vehicle表number</t>
-  </si>
-  <si>
-    <t>→user表number</t>
   </si>
 </sst>
 </file>
@@ -890,6 +873,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -907,15 +899,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1197,13 +1180,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U40"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1219,33 +1202,33 @@
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="30"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="33"/>
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="28" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1286,7 +1269,7 @@
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
@@ -1325,7 +1308,7 @@
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -1350,7 +1333,7 @@
       <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="30" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1383,7 +1366,7 @@
       <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="11" t="s">
         <v>28</v>
       </c>
@@ -1414,7 +1397,7 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1439,7 +1422,7 @@
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="28" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1478,7 +1461,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="7" t="s">
         <v>28</v>
       </c>
@@ -1515,7 +1498,7 @@
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="26"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1540,7 +1523,7 @@
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="30" t="s">
         <v>116</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -1585,7 +1568,7 @@
       <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="11" t="s">
         <v>46</v>
       </c>
@@ -1628,7 +1611,7 @@
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="27"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -1655,7 +1638,7 @@
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="28" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1690,7 +1673,7 @@
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="7" t="s">
         <v>51</v>
       </c>
@@ -1723,7 +1706,7 @@
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="25"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1748,7 +1731,7 @@
       <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -1789,7 +1772,7 @@
       <c r="A18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="11" t="s">
         <v>28</v>
       </c>
@@ -1828,7 +1811,7 @@
       <c r="A19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="28"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11" t="s">
         <v>105</v>
@@ -1855,7 +1838,7 @@
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="28" t="s">
         <v>64</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1894,7 +1877,7 @@
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="26"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="7" t="s">
         <v>28</v>
       </c>
@@ -1931,7 +1914,7 @@
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="26"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="7"/>
       <c r="D22" s="14" t="s">
         <v>106</v>
@@ -1958,7 +1941,7 @@
       <c r="A23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="30" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -2021,7 +2004,7 @@
       <c r="A24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="28"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="11" t="s">
         <v>28</v>
       </c>
@@ -2082,7 +2065,7 @@
       <c r="A25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="28"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
         <v>105</v>
@@ -2113,7 +2096,7 @@
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="28" t="s">
         <v>95</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -2148,7 +2131,7 @@
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="26"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="7" t="s">
         <v>97</v>
       </c>
@@ -2181,7 +2164,7 @@
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="26"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="7" t="s">
         <v>109</v>
       </c>
@@ -2212,7 +2195,7 @@
       <c r="A29" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="30" t="s">
         <v>138</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -2247,7 +2230,7 @@
       <c r="A30" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="28"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="22" t="s">
         <v>97</v>
       </c>
@@ -2280,7 +2263,7 @@
       <c r="A31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="28"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="22" t="s">
         <v>109</v>
       </c>
@@ -2311,7 +2294,7 @@
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="25" t="s">
         <v>133</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -2342,7 +2325,7 @@
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="32"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="24" t="s">
         <v>135</v>
       </c>
@@ -2371,7 +2354,7 @@
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="33"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
@@ -2396,7 +2379,7 @@
       <c r="A35" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="30" t="s">
         <v>99</v>
       </c>
       <c r="C35" s="10" t="s">
@@ -2429,7 +2412,7 @@
       <c r="A36" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="28"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="22" t="s">
         <v>102</v>
       </c>
@@ -2460,7 +2443,7 @@
       <c r="A37" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="28"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
@@ -2481,117 +2464,21 @@
       <c r="T37" s="22"/>
       <c r="U37" s="12"/>
     </row>
-    <row r="38" spans="1:21" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="8"/>
-    </row>
-    <row r="39" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="8"/>
-    </row>
-    <row r="40" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B35:B37"/>
+  <mergeCells count="13">
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B29:B31"/>
     <mergeCell ref="C1:U1"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B35:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Go Files\DatabaseProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6462D8-075B-4542-B7D4-20C0191022CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4A2AE5-6631-4BEB-B990-0D6606FF0474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17895" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -873,6 +873,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -882,22 +891,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1183,10 +1183,10 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17:XFD18"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1202,33 +1202,33 @@
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="33"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="32"/>
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="25" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1269,7 +1269,7 @@
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
@@ -1308,7 +1308,7 @@
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -1333,7 +1333,7 @@
       <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="26" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1366,7 +1366,7 @@
       <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="11" t="s">
         <v>28</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1422,7 +1422,7 @@
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="25" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1461,7 +1461,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="7" t="s">
         <v>28</v>
       </c>
@@ -1498,7 +1498,7 @@
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1523,7 +1523,7 @@
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="26" t="s">
         <v>116</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -1568,7 +1568,7 @@
       <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="11" t="s">
         <v>46</v>
       </c>
@@ -1611,7 +1611,7 @@
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -1638,7 +1638,7 @@
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1673,7 +1673,7 @@
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="7" t="s">
         <v>51</v>
       </c>
@@ -1706,7 +1706,7 @@
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="28"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1731,7 +1731,7 @@
       <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="26" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -1772,7 +1772,7 @@
       <c r="A18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="11" t="s">
         <v>28</v>
       </c>
@@ -1811,7 +1811,7 @@
       <c r="A19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="31"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11" t="s">
         <v>105</v>
@@ -1838,7 +1838,7 @@
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1877,7 +1877,7 @@
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="7" t="s">
         <v>28</v>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="7"/>
       <c r="D22" s="14" t="s">
         <v>106</v>
@@ -1941,7 +1941,7 @@
       <c r="A23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="26" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -2004,7 +2004,7 @@
       <c r="A24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="31"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="11" t="s">
         <v>28</v>
       </c>
@@ -2065,7 +2065,7 @@
       <c r="A25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="31"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
         <v>105</v>
@@ -2096,7 +2096,7 @@
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="25" t="s">
         <v>95</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -2131,7 +2131,7 @@
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="29"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="7" t="s">
         <v>97</v>
       </c>
@@ -2164,7 +2164,7 @@
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="29"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="7" t="s">
         <v>109</v>
       </c>
@@ -2195,7 +2195,7 @@
       <c r="A29" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="26" t="s">
         <v>138</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -2230,7 +2230,7 @@
       <c r="A30" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="31"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="22" t="s">
         <v>97</v>
       </c>
@@ -2263,7 +2263,7 @@
       <c r="A31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="31"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="22" t="s">
         <v>109</v>
       </c>
@@ -2294,7 +2294,7 @@
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="28" t="s">
         <v>133</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -2325,7 +2325,7 @@
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="26"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="24" t="s">
         <v>135</v>
       </c>
@@ -2354,7 +2354,7 @@
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="27"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
@@ -2379,7 +2379,7 @@
       <c r="A35" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="26" t="s">
         <v>99</v>
       </c>
       <c r="C35" s="10" t="s">
@@ -2412,7 +2412,7 @@
       <c r="A36" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="31"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="22" t="s">
         <v>102</v>
       </c>
@@ -2443,7 +2443,7 @@
       <c r="A37" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="31"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
@@ -2466,6 +2466,7 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B35:B37"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B32:B34"/>
@@ -2478,7 +2479,6 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B35:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Go Files\DatabaseProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4A2AE5-6631-4BEB-B990-0D6606FF0474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C43B5AE-4D7E-4C5E-83BE-BE3B8F382C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31065" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -799,7 +799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -873,14 +873,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1183,10 +1186,10 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1202,33 +1205,33 @@
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="33"/>
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="28" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1269,7 +1272,7 @@
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
@@ -1308,7 +1311,7 @@
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -1422,7 +1425,7 @@
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="28" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1461,7 +1464,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="7" t="s">
         <v>28</v>
       </c>
@@ -1498,7 +1501,7 @@
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1638,7 +1641,7 @@
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="28" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1673,7 +1676,7 @@
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="7" t="s">
         <v>51</v>
       </c>
@@ -1706,7 +1709,7 @@
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="25"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1838,7 +1841,7 @@
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="28" t="s">
         <v>64</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1877,7 +1880,7 @@
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="33"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="7" t="s">
         <v>28</v>
       </c>
@@ -1914,7 +1917,7 @@
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="33"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="7"/>
       <c r="D22" s="14" t="s">
         <v>106</v>
@@ -1983,22 +1986,22 @@
       <c r="O23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11" t="s">
+      <c r="P23" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="R23" s="11" t="s">
+      <c r="Q23" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="S23" s="11" t="s">
+      <c r="R23" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="T23" s="11" t="s">
+      <c r="S23" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="U23" s="12" t="s">
+      <c r="T23" s="12" t="s">
         <v>78</v>
       </c>
+      <c r="U23" s="12"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
@@ -2044,22 +2047,22 @@
       <c r="O24" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11" t="s">
+      <c r="P24" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="R24" s="11" t="s">
+      <c r="Q24" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="S24" s="11" t="s">
+      <c r="R24" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="T24" s="11" t="s">
+      <c r="S24" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="U24" s="12" t="s">
+      <c r="T24" s="12" t="s">
         <v>94</v>
       </c>
+      <c r="U24" s="12"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
@@ -2096,7 +2099,7 @@
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="28" t="s">
         <v>95</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -2131,7 +2134,7 @@
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="33"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="7" t="s">
         <v>97</v>
       </c>
@@ -2164,7 +2167,7 @@
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="33"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="7" t="s">
         <v>109</v>
       </c>
@@ -2294,7 +2297,7 @@
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="29" t="s">
         <v>133</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -2325,7 +2328,7 @@
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="29"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="24" t="s">
         <v>135</v>
       </c>
@@ -2354,7 +2357,7 @@
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="30"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
@@ -2466,16 +2469,16 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C1:U1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C1:U1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B28"/>

--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Go Files\DatabaseProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C43B5AE-4D7E-4C5E-83BE-BE3B8F382C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F781BE04-FFEF-4A0C-AAE7-29A6B62C386C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31065" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -876,15 +876,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -893,15 +902,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1186,10 +1186,10 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1205,27 +1205,27 @@
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="33"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="27"/>
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -1272,7 +1272,7 @@
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
@@ -1311,7 +1311,7 @@
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -1336,7 +1336,7 @@
       <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="30" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1369,7 +1369,7 @@
       <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="11" t="s">
         <v>28</v>
       </c>
@@ -1400,7 +1400,7 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1464,7 +1464,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="7" t="s">
         <v>28</v>
       </c>
@@ -1501,7 +1501,7 @@
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1526,7 +1526,7 @@
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="30" t="s">
         <v>116</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -1571,7 +1571,7 @@
       <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="11" t="s">
         <v>46</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -1734,7 +1734,7 @@
       <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -1775,7 +1775,7 @@
       <c r="A18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="27"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="11" t="s">
         <v>28</v>
       </c>
@@ -1814,7 +1814,7 @@
       <c r="A19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="27"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11" t="s">
         <v>105</v>
@@ -1880,7 +1880,7 @@
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="34"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="7" t="s">
         <v>28</v>
       </c>
@@ -1917,7 +1917,7 @@
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="34"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="7"/>
       <c r="D22" s="14" t="s">
         <v>106</v>
@@ -1944,7 +1944,7 @@
       <c r="A23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="30" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -2007,7 +2007,7 @@
       <c r="A24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="27"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="11" t="s">
         <v>28</v>
       </c>
@@ -2068,7 +2068,7 @@
       <c r="A25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="27"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
         <v>105</v>
@@ -2134,7 +2134,7 @@
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="34"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="7" t="s">
         <v>97</v>
       </c>
@@ -2167,7 +2167,7 @@
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="34"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="7" t="s">
         <v>109</v>
       </c>
@@ -2198,7 +2198,7 @@
       <c r="A29" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="30" t="s">
         <v>138</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -2233,7 +2233,7 @@
       <c r="A30" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="27"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="22" t="s">
         <v>97</v>
       </c>
@@ -2266,7 +2266,7 @@
       <c r="A31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="27"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="22" t="s">
         <v>109</v>
       </c>
@@ -2297,7 +2297,7 @@
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="32" t="s">
         <v>133</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -2328,7 +2328,7 @@
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="30"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="24" t="s">
         <v>135</v>
       </c>
@@ -2357,7 +2357,7 @@
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="31"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
@@ -2382,7 +2382,7 @@
       <c r="A35" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="30" t="s">
         <v>99</v>
       </c>
       <c r="C35" s="10" t="s">
@@ -2415,7 +2415,7 @@
       <c r="A36" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="27"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="22" t="s">
         <v>102</v>
       </c>
@@ -2446,7 +2446,7 @@
       <c r="A37" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="27"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
@@ -2469,11 +2469,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C1:U1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B19"/>
@@ -2482,6 +2477,11 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C1:U1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Go Files\DatabaseProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F781BE04-FFEF-4A0C-AAE7-29A6B62C386C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8769E2FB-CA7C-4A3A-A7E1-F18CC29DB1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8130" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -799,7 +799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -837,9 +837,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -876,24 +873,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -902,6 +890,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1186,16 +1183,16 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
     <col min="3" max="21" width="20.625" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
@@ -1205,33 +1202,33 @@
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="27"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="33"/>
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1272,7 +1269,7 @@
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
@@ -1311,7 +1308,7 @@
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -1336,7 +1333,7 @@
       <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="25" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1369,7 +1366,7 @@
       <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="11" t="s">
         <v>28</v>
       </c>
@@ -1400,7 +1397,7 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1425,7 +1422,7 @@
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1464,7 +1461,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="7" t="s">
         <v>28</v>
       </c>
@@ -1501,7 +1498,7 @@
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1526,40 +1523,40 @@
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="25" t="s">
         <v>116</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
@@ -1571,38 +1568,38 @@
       <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
@@ -1614,7 +1611,7 @@
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -1623,7 +1620,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="19" t="s">
         <v>137</v>
       </c>
       <c r="L13" s="11"/>
@@ -1641,7 +1638,7 @@
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1650,10 +1647,10 @@
       <c r="D14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>50</v>
       </c>
       <c r="G14" s="7"/>
@@ -1676,17 +1673,17 @@
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>53</v>
       </c>
       <c r="G15" s="7"/>
@@ -1709,7 +1706,7 @@
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="28"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1734,13 +1731,13 @@
       <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="25" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
@@ -1775,7 +1772,7 @@
       <c r="A18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="11" t="s">
         <v>28</v>
       </c>
@@ -1814,7 +1811,7 @@
       <c r="A19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="31"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11" t="s">
         <v>105</v>
@@ -1841,7 +1838,7 @@
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>64</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1880,7 +1877,7 @@
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="7" t="s">
         <v>28</v>
       </c>
@@ -1917,9 +1914,9 @@
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>106</v>
       </c>
       <c r="E22" s="7"/>
@@ -1944,7 +1941,7 @@
       <c r="A23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="25" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -1986,16 +1983,16 @@
       <c r="O23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P23" s="25" t="s">
+      <c r="P23" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="Q23" s="25" t="s">
+      <c r="Q23" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="R23" s="25" t="s">
+      <c r="R23" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="S23" s="25" t="s">
+      <c r="S23" s="24" t="s">
         <v>77</v>
       </c>
       <c r="T23" s="12" t="s">
@@ -2007,7 +2004,7 @@
       <c r="A24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="31"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="11" t="s">
         <v>28</v>
       </c>
@@ -2047,16 +2044,16 @@
       <c r="O24" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="P24" s="25" t="s">
+      <c r="P24" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="Q24" s="25" t="s">
+      <c r="Q24" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="R24" s="25" t="s">
+      <c r="R24" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="S24" s="25" t="s">
+      <c r="S24" s="24" t="s">
         <v>93</v>
       </c>
       <c r="T24" s="12" t="s">
@@ -2068,7 +2065,7 @@
       <c r="A25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="31"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
         <v>105</v>
@@ -2099,24 +2096,24 @@
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="27" t="s">
         <v>95</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -2134,7 +2131,7 @@
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="29"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="7" t="s">
         <v>97</v>
       </c>
@@ -2144,12 +2141,12 @@
       <c r="E27" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -2167,7 +2164,7 @@
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="29"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="7" t="s">
         <v>109</v>
       </c>
@@ -2198,7 +2195,7 @@
       <c r="A29" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="25" t="s">
         <v>138</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -2210,265 +2207,270 @@
       <c r="E29" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
       <c r="U29" s="12"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="22" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
       <c r="U30" s="12"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="22" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
       <c r="U31" s="12"/>
     </row>
     <row r="32" spans="1:21" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="28" t="s">
         <v>133</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
       <c r="U32" s="8"/>
     </row>
     <row r="33" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="24" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
       <c r="U33" s="8"/>
     </row>
     <row r="34" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
       <c r="U34" s="8"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="25" t="s">
         <v>99</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
       <c r="U35" s="12"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="22" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
       <c r="U36" s="12"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
       <c r="U37" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C1:U1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B19"/>
@@ -2477,11 +2479,6 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C1:U1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
